--- a/CredentialsDataProviders.xlsx
+++ b/CredentialsDataProviders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbkaushikkumar\IdeaProjects\OpenMRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\IdeaProjects\OpenMRS_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E374C-0719-4FC4-B506-D9C16B8454EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD976FE-FB26-4CBF-BEA5-D5ED85501951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
   </si>
 </sst>
 </file>
@@ -354,35 +363,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CredentialsDataProviders.xlsx
+++ b/CredentialsDataProviders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbkaushikkumar\IdeaProjects\OpenMRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E374C-0719-4FC4-B506-D9C16B8454EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB0AC3-666F-4106-B16C-4CA259DFE3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
